--- a/assets/excel/format_import_data_izin.xlsx
+++ b/assets/excel/format_import_data_izin.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bagus\OneDrive\Dokumen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project-web\dispensasi-siswa\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9049CBCA-80FC-4B9F-8D6B-63DF459213E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03383C6F-35F6-4A3C-9E2A-2D332C79323B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9E56303B-5677-494A-91A5-672393E6063C}"/>
   </bookViews>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Nama Siswa (HARUS SESUAI)</t>
-  </si>
-  <si>
-    <t>Nama Guru (HARUS SESUAI)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Kelas/Jurusan</t>
   </si>
@@ -51,10 +45,10 @@
     <t>Testing</t>
   </si>
   <si>
-    <t>Dora</t>
-  </si>
-  <si>
-    <t>Yati</t>
+    <t>nomor siswa</t>
+  </si>
+  <si>
+    <t>nomor guru</t>
   </si>
 </sst>
 </file>
@@ -434,7 +428,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,33 +443,33 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>10001</v>
+      </c>
+      <c r="B2" s="2">
+        <v>20002</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="D2" s="3">
         <v>45127</v>
@@ -484,7 +478,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
